--- a/工具/减肥.xlsx
+++ b/工具/减肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -87,39 +87,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -139,6 +116,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,8 +124,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,16 +162,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,6 +190,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,21 +218,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,80 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -828,9 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,6 +844,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,20 +1253,20 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="L9" sqref="L9:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.12962962962963" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="6" max="21" width="7.00833333333333" customWidth="1"/>
-    <col min="22" max="22" width="7.00833333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.00833333333333" customWidth="1"/>
-    <col min="24" max="24" width="7.00833333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="7.00833333333333" customWidth="1"/>
+    <col min="6" max="21" width="7.00925925925926" customWidth="1"/>
+    <col min="22" max="22" width="7.00925925925926" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.00925925925926" customWidth="1"/>
+    <col min="24" max="24" width="7.00925925925926" style="2" customWidth="1"/>
+    <col min="25" max="25" width="7.00925925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:25">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5">
-        <v>44707</v>
+        <v>44726</v>
       </c>
       <c r="B2" s="6">
         <v>93.6</v>
@@ -1299,27 +1299,25 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="7">
-        <v>44708</v>
-      </c>
-      <c r="B3" s="6">
-        <v>92.7</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="5">
+        <v>44727</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="str">
         <f>IF(B3="","",IF(B3-B2&gt;-10,B3-B2,""))</f>
-        <v>-0.899999999999991</v>
+        <v/>
       </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1354,8 +1352,8 @@
       <c r="Y3" s="26"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="7">
-        <v>44709</v>
+      <c r="A4" s="5">
+        <v>44728</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="str">
@@ -1365,10 +1363,10 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1387,8 +1385,8 @@
       <c r="Y4" s="26"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="7">
-        <v>44710</v>
+      <c r="A5" s="5">
+        <v>44729</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="str">
@@ -1398,57 +1396,57 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10">
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
         <f>COUNTIFS(D2:D200,F5)</f>
-        <v>16</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9">
         <v>93.6</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10">
-        <v>85</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="10">
+      <c r="K5" s="10"/>
+      <c r="L5" s="9">
+        <v>84</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9">
         <f>LOOKUP(9E+307,B2:B17)</f>
-        <v>92.7</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10">
+        <v>93.6</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9">
         <f>J5-L5</f>
-        <v>8.59999999999999</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10">
+        <v>9.59999999999999</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9">
         <f>N5-L5</f>
-        <v>7.7</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10" t="str">
+        <v>9.59999999999999</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="9" t="str">
         <f>IF(R5&lt;=0,"successful","no ok")</f>
         <v>no ok</v>
       </c>
-      <c r="U5" s="11"/>
+      <c r="U5" s="10"/>
       <c r="V5" s="23">
         <f>(P5-R5)/P5</f>
-        <v>0.104651162790697</v>
-      </c>
-      <c r="W5" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="10"/>
       <c r="X5" s="23">
         <f>(H5-COUNTIFS(D2:D200,F5,B2:B200,""))/H5</f>
-        <v>0.125</v>
-      </c>
-      <c r="Y5" s="11"/>
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="7">
-        <v>44711</v>
+      <c r="A6" s="5">
+        <v>44730</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="str">
@@ -1458,30 +1456,30 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="24"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="24"/>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="7">
-        <v>44712</v>
+      <c r="A7" s="5">
+        <v>44731</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="str">
@@ -1491,30 +1489,30 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="10"/>
       <c r="X7" s="23"/>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="7">
-        <v>44713</v>
+      <c r="A8" s="5">
+        <v>44732</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="str">
@@ -1524,30 +1522,30 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="13"/>
+      <c r="W8" s="12"/>
       <c r="X8" s="24"/>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="7">
-        <v>44714</v>
+      <c r="A9" s="5">
+        <v>44733</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="str">
@@ -1557,30 +1555,30 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="11"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="23"/>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="7">
-        <v>44715</v>
+      <c r="A10" s="5">
+        <v>44734</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="str">
@@ -1590,30 +1588,30 @@
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="13"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="24"/>
-      <c r="Y10" s="13"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="7">
-        <v>44716</v>
+      <c r="A11" s="5">
+        <v>44735</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="str">
@@ -1623,30 +1621,30 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="10"/>
       <c r="X11" s="23"/>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="7">
-        <v>44717</v>
+      <c r="A12" s="5">
+        <v>44736</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="str">
@@ -1656,30 +1654,30 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
       <c r="V12" s="24"/>
-      <c r="W12" s="13"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="24"/>
-      <c r="Y12" s="13"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="7">
-        <v>44718</v>
+      <c r="A13" s="5">
+        <v>44737</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="str">
@@ -1689,30 +1687,30 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="11"/>
+      <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="7">
-        <v>44719</v>
+      <c r="A14" s="5">
+        <v>44738</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="str">
@@ -1722,30 +1720,30 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
       <c r="V14" s="24"/>
-      <c r="W14" s="13"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="13"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="7">
-        <v>44720</v>
+      <c r="A15" s="5">
+        <v>44739</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="str">
@@ -1755,30 +1753,30 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="11"/>
+      <c r="W15" s="10"/>
       <c r="X15" s="23"/>
-      <c r="Y15" s="11"/>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="7">
-        <v>44721</v>
+      <c r="A16" s="5">
+        <v>44740</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="str">
@@ -1788,30 +1786,30 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="24"/>
-      <c r="Y16" s="13"/>
+      <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="7">
-        <v>44722</v>
+      <c r="A17" s="5">
+        <v>44741</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="str">
@@ -1821,61 +1819,63 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="11"/>
+      <c r="W17" s="10"/>
       <c r="X17" s="23"/>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="10"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="7">
-        <v>44723</v>
+      <c r="A18" s="5">
+        <v>44742</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D18" s="6"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
       <c r="V18" s="24"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="24"/>
-      <c r="Y18" s="13"/>
+      <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="7">
-        <v>44724</v>
+      <c r="A19" s="5">
+        <v>44743</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="str">
@@ -1883,30 +1883,30 @@
         <v/>
       </c>
       <c r="D19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10"/>
       <c r="V19" s="23"/>
-      <c r="W19" s="11"/>
+      <c r="W19" s="10"/>
       <c r="X19" s="23"/>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="10"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="7">
-        <v>44725</v>
+      <c r="A20" s="5">
+        <v>44744</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="str">
@@ -1914,30 +1914,30 @@
         <v/>
       </c>
       <c r="D20" s="6"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
       <c r="V20" s="24"/>
-      <c r="W20" s="13"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="24"/>
-      <c r="Y20" s="13"/>
+      <c r="Y20" s="12"/>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="7">
-        <v>44726</v>
+      <c r="A21" s="5">
+        <v>44745</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="str">
@@ -1945,30 +1945,30 @@
         <v/>
       </c>
       <c r="D21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
       <c r="V21" s="23"/>
-      <c r="W21" s="11"/>
+      <c r="W21" s="10"/>
       <c r="X21" s="23"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="7">
-        <v>44727</v>
+      <c r="A22" s="5">
+        <v>44746</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="str">
@@ -1976,30 +1976,30 @@
         <v/>
       </c>
       <c r="D22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="12"/>
       <c r="V22" s="24"/>
-      <c r="W22" s="13"/>
+      <c r="W22" s="12"/>
       <c r="X22" s="24"/>
-      <c r="Y22" s="13"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="7">
-        <v>44728</v>
+      <c r="A23" s="5">
+        <v>44747</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="str">
@@ -2007,30 +2007,30 @@
         <v/>
       </c>
       <c r="D23" s="6"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="11"/>
+      <c r="W23" s="10"/>
       <c r="X23" s="23"/>
-      <c r="Y23" s="11"/>
+      <c r="Y23" s="10"/>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="7">
-        <v>44729</v>
+      <c r="A24" s="5">
+        <v>44748</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="str">
@@ -2038,30 +2038,30 @@
         <v/>
       </c>
       <c r="D24" s="6"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="24"/>
-      <c r="W24" s="13"/>
+      <c r="W24" s="12"/>
       <c r="X24" s="24"/>
-      <c r="Y24" s="13"/>
+      <c r="Y24" s="12"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="7">
-        <v>44730</v>
+      <c r="A25" s="5">
+        <v>44749</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="str">
@@ -2069,30 +2069,30 @@
         <v/>
       </c>
       <c r="D25" s="6"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="11"/>
+      <c r="W25" s="10"/>
       <c r="X25" s="23"/>
-      <c r="Y25" s="11"/>
+      <c r="Y25" s="10"/>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="7">
-        <v>44731</v>
+      <c r="A26" s="5">
+        <v>44750</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="str">
@@ -2100,30 +2100,30 @@
         <v/>
       </c>
       <c r="D26" s="6"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="12"/>
       <c r="V26" s="24"/>
-      <c r="W26" s="13"/>
+      <c r="W26" s="12"/>
       <c r="X26" s="24"/>
-      <c r="Y26" s="13"/>
+      <c r="Y26" s="12"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7">
-        <v>44732</v>
+      <c r="A27" s="5">
+        <v>44751</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="str">
@@ -2133,8 +2133,8 @@
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7">
-        <v>44733</v>
+      <c r="A28" s="5">
+        <v>44752</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="str">
@@ -2144,8 +2144,8 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7">
-        <v>44734</v>
+      <c r="A29" s="5">
+        <v>44753</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="str">
@@ -2155,8 +2155,8 @@
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7">
-        <v>44735</v>
+      <c r="A30" s="5">
+        <v>44754</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="str">
@@ -2166,8 +2166,8 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7">
-        <v>44736</v>
+      <c r="A31" s="5">
+        <v>44755</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="str">
@@ -2177,8 +2177,8 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7">
-        <v>44737</v>
+      <c r="A32" s="5">
+        <v>44756</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="str">
@@ -2188,8 +2188,8 @@
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7">
-        <v>44738</v>
+      <c r="A33" s="5">
+        <v>44757</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="str">
@@ -2199,8 +2199,8 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7">
-        <v>44739</v>
+      <c r="A34" s="5">
+        <v>44758</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="str">
@@ -2210,8 +2210,8 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7">
-        <v>44740</v>
+      <c r="A35" s="5">
+        <v>44759</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="str">
@@ -2221,8 +2221,8 @@
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7">
-        <v>44741</v>
+      <c r="A36" s="5">
+        <v>44760</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="str">
@@ -2232,8 +2232,8 @@
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7">
-        <v>44742</v>
+      <c r="A37" s="5">
+        <v>44761</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="str">
@@ -2243,8 +2243,8 @@
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7">
-        <v>44743</v>
+      <c r="A38" s="5">
+        <v>44762</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="str">
@@ -2254,8 +2254,8 @@
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7">
-        <v>44744</v>
+      <c r="A39" s="5">
+        <v>44763</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="str">
@@ -2265,8 +2265,8 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7">
-        <v>44745</v>
+      <c r="A40" s="5">
+        <v>44764</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="str">
@@ -2276,8 +2276,8 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7">
-        <v>44746</v>
+      <c r="A41" s="5">
+        <v>44765</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="str">
@@ -2287,8 +2287,8 @@
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7">
-        <v>44747</v>
+      <c r="A42" s="5">
+        <v>44766</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="str">
@@ -2298,8 +2298,8 @@
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7">
-        <v>44748</v>
+      <c r="A43" s="5">
+        <v>44767</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="str">
@@ -2309,8 +2309,8 @@
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7">
-        <v>44749</v>
+      <c r="A44" s="5">
+        <v>44768</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="str">
@@ -2320,8 +2320,8 @@
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7">
-        <v>44750</v>
+      <c r="A45" s="5">
+        <v>44769</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="str">
@@ -2331,7 +2331,7 @@
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7">
+      <c r="A46" s="13">
         <v>44751</v>
       </c>
       <c r="B46" s="6"/>
@@ -2342,7 +2342,7 @@
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7">
+      <c r="A47" s="13">
         <v>44752</v>
       </c>
       <c r="B47" s="6"/>
@@ -2508,7 +2508,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2525,7 +2525,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
